--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143503.0250871206</v>
+        <v>135858.9632330903</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219458</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426642</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.7078552878327</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796767</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="U8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>104.8891084058</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
     </row>
     <row r="9">
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.88051274611323</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809189</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656962</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>65.52873313770849</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.8891084058</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>104.8891084058004</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>119.0839105424619</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.148020444609</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>166.9151815679632</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>81.01047975902686</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>266.179522441381</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="C14" t="n">
-        <v>222.122454950293</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>169.2166996703681</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>173.4164943363247</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1846,19 +1846,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>322.8781331131941</v>
       </c>
       <c r="D17" t="n">
-        <v>214.230991478422</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>74.42811009354939</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>23.25155861538701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>192.1828026002248</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>178.8296407352265</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>146.1924382374065</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.09228531058712</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>24.61722430282726</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>183.4872045441993</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,13 +2478,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>77.20378078338572</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>86.38976318987949</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>11.90294272943409</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>212.6615473203988</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>87.92455141075449</v>
       </c>
       <c r="G28" t="n">
-        <v>114.2435844806794</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>189.1435753385985</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>205.5539892783817</v>
       </c>
     </row>
     <row r="30">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>31.6677553097647</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>126.0897993949332</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>155.7114808343863</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>158.685170298863</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258575</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>77.20378078338571</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>149.6157531058519</v>
+        <v>182.5699011511854</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.09228531058624</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777209</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>98.41124626461398</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3562,7 +3562,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>201.3018903667169</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.46547451684577</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811444</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>47.81188690301202</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>156.827013932997</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>116.6395830120773</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6677553097647</v>
+        <v>53.19117033386376</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>48.50583343253271</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>264.3476845812644</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>74.42811009354851</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>43.97954181326713</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>129.8134911691155</v>
+        <v>40.54474848767241</v>
       </c>
       <c r="C8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="D8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="E8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585576</v>
+        <v>23.57954741585593</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558051</v>
+        <v>55.4163230655808</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318074</v>
+        <v>103.1313969318079</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183102</v>
+        <v>162.3261653183109</v>
       </c>
       <c r="M8" t="n">
-        <v>228.191750759094</v>
+        <v>228.191750759095</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326593</v>
+        <v>295.1231102326605</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336438</v>
+        <v>358.3244950336453</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455686</v>
+        <v>412.2654147455704</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245031</v>
+        <v>452.7727990245049</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698456</v>
+        <v>401.4050834648298</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698456</v>
+        <v>281.1183051391106</v>
       </c>
       <c r="U8" t="n">
-        <v>356.048863844127</v>
+        <v>281.1183051391106</v>
       </c>
       <c r="V8" t="n">
-        <v>235.7620855184084</v>
+        <v>160.8315268133915</v>
       </c>
       <c r="W8" t="n">
-        <v>235.7620855184084</v>
+        <v>160.8315268133915</v>
       </c>
       <c r="X8" t="n">
-        <v>129.8134911691155</v>
+        <v>160.8315268133915</v>
       </c>
       <c r="Y8" t="n">
-        <v>129.8134911691155</v>
+        <v>40.54474848767241</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>296.3970358980971</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="C9" t="n">
-        <v>189.9405747347394</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="D9" t="n">
-        <v>189.9405747347394</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="E9" t="n">
-        <v>95.8201600616931</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="F9" t="n">
-        <v>12.43632167785472</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396913</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I9" t="n">
-        <v>21.44476319204817</v>
+        <v>16.43678475114696</v>
       </c>
       <c r="J9" t="n">
-        <v>40.4065286652765</v>
+        <v>67.70899752367998</v>
       </c>
       <c r="K9" t="n">
-        <v>72.81520604459257</v>
+        <v>100.1176749029962</v>
       </c>
       <c r="L9" t="n">
-        <v>116.3926722602821</v>
+        <v>143.6951411186859</v>
       </c>
       <c r="M9" t="n">
-        <v>234.2857436973189</v>
+        <v>194.5479887761022</v>
       </c>
       <c r="N9" t="n">
-        <v>352.1788151343557</v>
+        <v>246.7467599936395</v>
       </c>
       <c r="O9" t="n">
-        <v>399.9304929406886</v>
+        <v>294.4984377999726</v>
       </c>
       <c r="P9" t="n">
-        <v>438.2554242425509</v>
+        <v>332.8233691018351</v>
       </c>
       <c r="Q9" t="n">
-        <v>463.874625873526</v>
+        <v>358.4425707328103</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238157</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="T9" t="n">
-        <v>416.6838142238157</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="U9" t="n">
-        <v>416.6838142238157</v>
+        <v>356.0488638441285</v>
       </c>
       <c r="V9" t="n">
-        <v>416.6838142238157</v>
+        <v>235.7620855184094</v>
       </c>
       <c r="W9" t="n">
-        <v>416.6838142238157</v>
+        <v>115.4753071926903</v>
       </c>
       <c r="X9" t="n">
-        <v>416.6838142238157</v>
+        <v>49.28466765965139</v>
       </c>
       <c r="Y9" t="n">
-        <v>296.3970358980971</v>
+        <v>49.28466765965139</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>115.4753071926898</v>
+        <v>235.7620855184094</v>
       </c>
       <c r="C10" t="n">
-        <v>115.4753071926898</v>
+        <v>235.7620855184094</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396913</v>
+        <v>235.7620855184094</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396913</v>
+        <v>129.8134911691161</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396913</v>
+        <v>9.526712843396952</v>
       </c>
       <c r="J10" t="n">
         <v>108.0024003011151</v>
       </c>
       <c r="K10" t="n">
-        <v>144.2923780027692</v>
+        <v>127.5511863760672</v>
       </c>
       <c r="L10" t="n">
-        <v>262.185449439806</v>
+        <v>245.4442578131045</v>
       </c>
       <c r="M10" t="n">
-        <v>288.5610142512611</v>
+        <v>271.8198226245597</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837859</v>
+        <v>297.5682354570846</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360044</v>
+        <v>321.3510622093033</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328089</v>
+        <v>358.4425707328103</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698456</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="U10" t="n">
-        <v>356.048863844127</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="V10" t="n">
-        <v>235.7620855184084</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="W10" t="n">
-        <v>115.4753071926898</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="X10" t="n">
-        <v>115.4753071926898</v>
+        <v>476.3356421698476</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.4753071926898</v>
+        <v>356.0488638441285</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>744.7955325958366</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="C11" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2101.256885969251</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>1738.639935903077</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>1333.784481314111</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X11" t="n">
-        <v>914.6420178934214</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y11" t="n">
-        <v>914.6420178934214</v>
+        <v>885.0319878285603</v>
       </c>
     </row>
     <row r="12">
@@ -5099,37 +5099,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>959.9477806029472</v>
+        <v>843.5014354710329</v>
       </c>
       <c r="C13" t="n">
-        <v>787.3860690861721</v>
+        <v>670.9397239542578</v>
       </c>
       <c r="D13" t="n">
-        <v>621.5080762876948</v>
+        <v>670.9397239542578</v>
       </c>
       <c r="E13" t="n">
-        <v>451.7500725384321</v>
+        <v>501.1817202049951</v>
       </c>
       <c r="F13" t="n">
-        <v>275.0430185001883</v>
+        <v>324.4746661667513</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U13" t="n">
-        <v>1704.785610369135</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.785610369135</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W13" t="n">
-        <v>1432.759205955427</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.367451288839</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y13" t="n">
-        <v>959.9477806029472</v>
+        <v>1035.32005419002</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>699.440097251154</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.86868437219</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1526.86868437219</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X14" t="n">
-        <v>1107.726220951501</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y14" t="n">
-        <v>699.440097251154</v>
+        <v>1081.546859998019</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
         <v>803.3877032987879</v>
@@ -5372,7 +5372,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>732.1113136517137</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>393.4422361027634</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092383</v>
+        <v>935.5229194890223</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V16" t="n">
-        <v>1668.767762136888</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.74135772318</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="X16" t="n">
-        <v>1151.349603056593</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.9299323707007</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>701.7439652528263</v>
+        <v>1634.49094569914</v>
       </c>
       <c r="C17" t="n">
-        <v>263.6014924362497</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
         <v>47.20655154895474</v>
@@ -5512,19 +5512,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y17" t="n">
-        <v>1128.043535737734</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="18">
@@ -5576,13 +5576,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>717.0469809559645</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>544.4852694391894</v>
       </c>
       <c r="D19" t="n">
-        <v>223.9136055871985</v>
+        <v>544.4852694391894</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
         <v>47.20655154895474</v>
@@ -5673,19 +5673,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>358.0754347909403</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092383</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
         <v>2173.32015736263</v>
@@ -5715,10 +5715,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>908.8655996749517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.76150051161</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>882.6190276950331</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
         <v>446.7092428694776</v>
@@ -5752,13 +5752,13 @@
         <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U20" t="n">
-        <v>2166.203534417207</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.203534417207</v>
+        <v>1708.84963369571</v>
       </c>
       <c r="W20" t="n">
-        <v>2166.203534417207</v>
+        <v>1303.994179106744</v>
       </c>
       <c r="X20" t="n">
-        <v>1747.061070996518</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="Y20" t="n">
-        <v>1747.061070996518</v>
+        <v>884.8517156860543</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>713.9024503859703</v>
       </c>
       <c r="C22" t="n">
-        <v>616.081764785142</v>
+        <v>541.3407388691952</v>
       </c>
       <c r="D22" t="n">
-        <v>616.081764785142</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>446.3237610358793</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>269.6167069976354</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>104.8755266101539</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895474</v>
@@ -5919,13 +5919,13 @@
         <v>601.5415720081296</v>
       </c>
       <c r="M22" t="n">
-        <v>1185.722647426444</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N22" t="n">
-        <v>1755.480362387978</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1133.140739790849</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>905.7210691049575</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.2588091910869</v>
+        <v>907.484910829202</v>
       </c>
       <c r="C23" t="n">
-        <v>483.1163363745102</v>
+        <v>907.484910829202</v>
       </c>
       <c r="D23" t="n">
-        <v>47.20655154895474</v>
+        <v>471.5751260036465</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895474</v>
+        <v>471.5751260036465</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>471.5751260036465</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>72.07243468312367</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V23" t="n">
-        <v>2174.986966797031</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W23" t="n">
-        <v>2174.986966797031</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X23" t="n">
-        <v>1755.844503376341</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y23" t="n">
-        <v>1347.558379675995</v>
+        <v>1333.78448131411</v>
       </c>
     </row>
     <row r="24">
@@ -6050,28 +6050,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J24" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>528.8193777246577</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C25" t="n">
-        <v>356.2576662078826</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D25" t="n">
-        <v>356.2576662078826</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>356.2576662078826</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092383</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.065190387253</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2030.817966290659</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.431334339402</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V25" t="n">
-        <v>1465.475826209833</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.449421796124</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X25" t="n">
-        <v>948.0576671295366</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y25" t="n">
-        <v>720.6379964436449</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>458.7324173436534</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C26" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D26" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E26" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867032</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V26" t="n">
-        <v>1698.173566117875</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W26" t="n">
-        <v>1293.318111528908</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X26" t="n">
-        <v>1293.318111528908</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y26" t="n">
-        <v>885.0319878285612</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906851</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068468</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965036</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127630997</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>765.0997489345758</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J27" t="n">
-        <v>858.993088281043</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,58 +6360,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.655226289377</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C28" t="n">
-        <v>471.655226289377</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D28" t="n">
-        <v>471.655226289377</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E28" t="n">
-        <v>471.655226289377</v>
+        <v>136.019229741636</v>
       </c>
       <c r="F28" t="n">
-        <v>294.9481722511332</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L28" t="n">
-        <v>744.992999204955</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M28" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N28" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
         <v>1973.653814855378</v>
@@ -6420,16 +6420,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>890.8935156942559</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083642</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>907.484910829202</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895472</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.25688596925</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.639935903077</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W29" t="n">
-        <v>1333.78448131411</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X29" t="n">
-        <v>1333.78448131411</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="Y29" t="n">
-        <v>1333.78448131411</v>
+        <v>1344.758510807007</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M30" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C31" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D31" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>831.5726843696448</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827552</v>
+        <v>910.9641928553085</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789086</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.320157362629</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P31" t="n">
         <v>2274.089213540313</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.32005419002</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.2588091910869</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="C32" t="n">
-        <v>483.1163363745102</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="D32" t="n">
-        <v>47.20655154895472</v>
+        <v>1066.13305005659</v>
       </c>
       <c r="E32" t="n">
-        <v>47.20655154895472</v>
+        <v>632.3583052148847</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895472</v>
+        <v>204.4908756240924</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895472</v>
+        <v>204.4908756240924</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895472</v>
@@ -6700,13 +6700,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.546859998019</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X32" t="n">
-        <v>921.2588091910869</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y32" t="n">
-        <v>921.2588091910869</v>
+        <v>1492.432620541497</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0817647851411</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268366</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364612</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>301.8972225401134</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895472</v>
+        <v>125.1901685018696</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895472</v>
@@ -6858,25 +6858,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.32005419002</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041283</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1934.028006962828</v>
+        <v>1529.172552373861</v>
       </c>
       <c r="C35" t="n">
-        <v>1495.885534146252</v>
+        <v>1529.172552373861</v>
       </c>
       <c r="D35" t="n">
-        <v>1059.975749320696</v>
+        <v>1093.262767548306</v>
       </c>
       <c r="E35" t="n">
-        <v>626.2010044789913</v>
+        <v>659.488022706601</v>
       </c>
       <c r="F35" t="n">
-        <v>198.3335748881991</v>
+        <v>231.6205931158087</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895472</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6976,13 +6976,13 @@
         <v>2360.327577447736</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447736</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X35" t="n">
-        <v>2360.327577447736</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="Y35" t="n">
-        <v>2360.327577447736</v>
+        <v>1955.472122858769</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J36" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>616.0817647851411</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>616.0817647851411</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
-        <v>446.3237610358784</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>269.6167069976345</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>104.8755266101529</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895472</v>
@@ -7095,19 +7095,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>320.0013704257346</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>862.0820538119935</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>992.686446150523</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954412</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O37" t="n">
         <v>1657.620488527956</v>
@@ -7125,22 +7125,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C38" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="D38" t="n">
-        <v>446.7092428694776</v>
+        <v>1008.254025238638</v>
       </c>
       <c r="E38" t="n">
-        <v>446.7092428694776</v>
+        <v>574.4792803969328</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>146.6118508061406</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1686.150391643699</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1281.294937054732</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X38" t="n">
-        <v>1281.294937054732</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y38" t="n">
-        <v>873.0088133543854</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="39">
@@ -7247,13 +7247,13 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
         <v>335.7952991210683</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>577.1450828701352</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C40" t="n">
-        <v>577.1450828701352</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D40" t="n">
-        <v>577.1450828701352</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E40" t="n">
-        <v>407.3870791208724</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511378</v>
@@ -7338,46 +7338,46 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>588.016025518681</v>
+        <v>481.9462364092379</v>
       </c>
       <c r="M40" t="n">
-        <v>718.6204178572103</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083632</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1900.718744241844</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C41" t="n">
-        <v>1462.576271425267</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="D41" t="n">
-        <v>1026.666486599712</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>592.8917417580069</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>165.0243121672146</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662533</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662533</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.718744241844</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y41" t="n">
-        <v>1900.718744241844</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851411</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>616.0817647851411</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D43" t="n">
-        <v>616.0817647851411</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>358.0754347909397</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092376</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827552</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789086</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.320157362629</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
         <v>2118.080353351143</v>
@@ -7611,10 +7611,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>765.4265856715598</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C44" t="n">
-        <v>765.4265856715598</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D44" t="n">
-        <v>765.4265856715598</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792596</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X44" t="n">
-        <v>1173.712709371906</v>
+        <v>854.9953665698242</v>
       </c>
       <c r="Y44" t="n">
-        <v>765.4265856715598</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="45">
@@ -7721,22 +7721,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.6552262893761</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>299.0935147726011</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>299.0935147726011</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>299.0935147726011</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>122.3864607343573</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
         <v>1657.620488527956</v>
@@ -7830,28 +7830,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>2315.903797838376</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.058564081718464</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>32.63681545384304</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>67.71739775719261</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>66.35787900959565</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946643</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>16.91029457242643</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.81551078038332</v>
+        <v>93.81551078038373</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>16.91029457242684</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340658</v>
+        <v>104.8520877340663</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032066</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>105.0002374943208</v>
       </c>
       <c r="L16" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>69.27619576520644</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371571</v>
@@ -9336,7 +9336,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9567,16 +9567,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>410.2461643801348</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>303.104963259485</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042871</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -10035,19 +10035,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371571</v>
+        <v>337.3548964453464</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>158.2045317475395</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>105.0002374943212</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10515,19 +10515,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464593</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>118.271772330342</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>263.8716243249364</v>
+        <v>156.7304232042869</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2761957652059</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>403.0531928005782</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23038,7 +23038,7 @@
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021305</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179677</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515864</v>
       </c>
       <c r="U8" t="n">
-        <v>137.5158574008316</v>
+        <v>256.599767943293</v>
       </c>
       <c r="V8" t="n">
-        <v>239.9068700230503</v>
+        <v>239.9068700230498</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>310.0619303806824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>285.1193519208812</v>
       </c>
     </row>
     <row r="9">
@@ -23102,22 +23102,22 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>81.44799863813968</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656961</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518624</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>78.04243221615873</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.38561618167601</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>87.79002826580032</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.137010886110005</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>70.81652198933533</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>59.33010446469255</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>63.17131530596976</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>55.85607295539943</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.66219243742786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616403</v>
+        <v>13.561628576164</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23235,19 +23235,19 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.555489657734</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058124</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>150.22222982711</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>106.0615634365709</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.8885543354497</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>266.8458665204477</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -23269,10 +23269,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>82.0832888245799</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9.423243190363372</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>60.57166976433109</v>
       </c>
       <c r="C14" t="n">
-        <v>211.638593138118</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>114.8692533779058</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>95.88964603324672</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>110.8829149752168</v>
       </c>
       <c r="D17" t="n">
-        <v>217.3196954988779</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>89.79110277694313</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>144.8088650963831</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -24022,16 +24022,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>64.29718196347633</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>180.1611398302852</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>18.02677463308598</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>73.92833470389013</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>242.4071116387014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>175.5035760213124</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>93.63231361822159</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>56.59250992092833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>421.8581053589768</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>188.1453527226782</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>87.01543208710684</v>
       </c>
       <c r="G28" t="n">
-        <v>48.85018410292734</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>244.6174727498124</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>198.6492731849613</v>
       </c>
     </row>
     <row r="30">
@@ -24846,10 +24846,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>136.3926684020054</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.85018410292818</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>111.3128551071423</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>256.2658684876194</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779068</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>85.88998780022105</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>245.8919113014657</v>
+        <v>212.9377632561321</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25216,7 +25216,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>73.92833470389101</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811444</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>114.8692533779066</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>297.0964181427036</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>157.6888901987948</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.4349580149515</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>177.3335870760208</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.7236730443029</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>278.8680813952403</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>136.3926684020054</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>380.931163960755</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>150.603354205218</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>88.66565849005825</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>231.6232238184773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>87875.5777265439</v>
+        <v>87875.57772654426</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389992.5650383836</v>
+        <v>389992.5650383835</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>389992.5650383835</v>
+        <v>389992.5650383836</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>389992.5650383835</v>
+        <v>389992.5650383834</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>389992.5650383835</v>
+        <v>389992.5650383834</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>389992.5650383834</v>
+        <v>389992.5650383835</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389992.5650383834</v>
+        <v>389992.5650383835</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646975</v>
+        <v>38163.29078646992</v>
       </c>
       <c r="E2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="F2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="G2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="H2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="I2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="J2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
         <v>173027.328430899</v>
@@ -26352,7 +26352,7 @@
         <v>173027.328430899</v>
       </c>
       <c r="O2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="P2" t="n">
         <v>173027.328430899</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730584</v>
+        <v>117708.4675730588</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180438</v>
+        <v>439858.2450180431</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.0660031021</v>
+        <v>30139.06600310223</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597479</v>
+        <v>117374.5815597477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4713.479804066936</v>
+        <v>4713.479804066956</v>
       </c>
       <c r="E4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191561</v>
       </c>
       <c r="F4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="G4" t="n">
         <v>12946.1632919156</v>
@@ -26438,7 +26438,7 @@
         <v>12946.1632919156</v>
       </c>
       <c r="I4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="J4" t="n">
         <v>12946.16329191559</v>
@@ -26453,13 +26453,13 @@
         <v>12946.16329191559</v>
       </c>
       <c r="N4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.16329191561</v>
+        <v>12946.1632919156</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.5622723924</v>
+        <v>42922.56227239244</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
@@ -26490,10 +26490,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-127181.2188630479</v>
+        <v>-128348.1176591995</v>
       </c>
       <c r="E6" t="n">
-        <v>-325828.1610886981</v>
+        <v>-326382.0415319195</v>
       </c>
       <c r="F6" t="n">
-        <v>114030.0839293457</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="G6" t="n">
-        <v>114030.0839293456</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="H6" t="n">
-        <v>114030.0839293457</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="I6" t="n">
-        <v>114030.0839293457</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="J6" t="n">
-        <v>114030.0839293457</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="K6" t="n">
-        <v>114030.0839293456</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="L6" t="n">
-        <v>83891.01792624354</v>
+        <v>83337.13748302145</v>
       </c>
       <c r="M6" t="n">
-        <v>-3344.4976304023</v>
+        <v>-3898.37807362409</v>
       </c>
       <c r="N6" t="n">
-        <v>114030.0839293456</v>
+        <v>113476.2034861237</v>
       </c>
       <c r="O6" t="n">
-        <v>114030.0839293456</v>
+        <v>113476.2034861238</v>
       </c>
       <c r="P6" t="n">
-        <v>114030.0839293456</v>
+        <v>113476.2034861237</v>
       </c>
     </row>
   </sheetData>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480514</v>
+        <v>94.25048217480553</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
@@ -26810,10 +26810,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
         <v>590.081894361934</v>
@@ -26825,13 +26825,13 @@
         <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480514</v>
+        <v>94.25048217480553</v>
       </c>
       <c r="E3" t="n">
-        <v>372.451445918416</v>
+        <v>372.4514459184155</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194721</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194728</v>
+        <v>470.9979838194721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529852</v>
+        <v>0.3788964107529867</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624011</v>
+        <v>3.880372866624027</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555448</v>
+        <v>14.60740387555454</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214634</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932008</v>
+        <v>48.19704430932028</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990176</v>
+        <v>59.79269533990201</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463016</v>
+        <v>66.53089438463043</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168237</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725709</v>
+        <v>63.83978262725735</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679298</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.91654977670163</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196223</v>
+        <v>23.80085166196233</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033659</v>
+        <v>8.634101960033695</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071194</v>
+        <v>1.6586190380712</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023881</v>
+        <v>0.03031171286023893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250526</v>
+        <v>0.2027274522250534</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857745</v>
+        <v>1.957920393857753</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888872</v>
+        <v>6.979870613888901</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780647</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211065</v>
+        <v>44.01764264211083</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852688</v>
+        <v>51.366512785269</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286576</v>
+        <v>52.72603153286597</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.23401798619505</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200629</v>
+        <v>38.71205182006305</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542952</v>
+        <v>25.87798144542963</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779757</v>
+        <v>12.58688514779762</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531128</v>
+        <v>3.765573509531143</v>
       </c>
       <c r="T9" t="n">
-        <v>0.817133897345716</v>
+        <v>0.8171338973457193</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322715</v>
+        <v>0.0133373323832272</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889929</v>
+        <v>0.1699598858889936</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454032</v>
+        <v>1.511097894540326</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643532</v>
+        <v>5.111157295643554</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235179</v>
+        <v>12.01616393235184</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.74624856055761</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207809</v>
+        <v>25.26839976207819</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803549</v>
+        <v>26.6419846580356</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063108</v>
+        <v>26.00849781063119</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547329</v>
+        <v>24.02305732547339</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333782</v>
+        <v>20.5558756533379</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839563</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517804</v>
+        <v>7.642014505517835</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083629</v>
+        <v>2.961937284083641</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075148</v>
+        <v>0.7261922397075177</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308713</v>
+        <v>0.009270539230308751</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -33976,7 +33976,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -34143,7 +34143,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.116681354841</v>
@@ -34152,19 +34152,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
@@ -34234,7 +34234,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
@@ -34243,7 +34243,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
         <v>97.77787936116989</v>
@@ -34301,16 +34301,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
@@ -34322,7 +34322,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062837</v>
@@ -34380,28 +34380,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642308</v>
+        <v>14.19478239642314</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214634</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093201</v>
+        <v>48.19704430932028</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990177</v>
+        <v>59.79269533990201</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463016</v>
+        <v>66.53089438463041</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168237</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725708</v>
+        <v>63.83978262725736</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679298</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.91654977670163</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196221</v>
+        <v>23.80085166196233</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>12.03843469560734</v>
+        <v>6.979870613888899</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>51.79011391164951</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688505</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211064</v>
+        <v>44.01764264211083</v>
       </c>
       <c r="M9" t="n">
-        <v>119.0839105424614</v>
+        <v>51.36651278526901</v>
       </c>
       <c r="N9" t="n">
-        <v>119.0839105424614</v>
+        <v>52.72603153286599</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619489</v>
+        <v>48.23401798619506</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006287</v>
+        <v>38.71205182006304</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.8779814454295</v>
+        <v>25.87798144542961</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779755</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143247</v>
+        <v>99.47039137143253</v>
       </c>
       <c r="K10" t="n">
-        <v>36.65654313298396</v>
+        <v>19.7462485605576</v>
       </c>
       <c r="L10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803548</v>
+        <v>26.6419846580356</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063107</v>
+        <v>26.00849781063118</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547342</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333781</v>
+        <v>37.46617022576476</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424619</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030951</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -35652,7 +35652,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>202.7781168554907</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>167.0540751263764</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36281,22 +36281,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>542.1697930049121</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>422.0603989642948</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36521,16 +36521,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409517</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36694,10 +36694,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>469.2785250701236</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>277.1599674523495</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
@@ -36776,7 +36776,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>236.9238661190984</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>258.5173486362896</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
@@ -37086,7 +37086,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712365</v>
+        <v>142.5533002411762</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027014</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,7 +37320,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184533</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
@@ -37390,13 +37390,13 @@
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>216.0496516915119</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
         <v>547.556245844706</v>
@@ -37478,7 +37478,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P37" t="n">
         <v>452.8039900485103</v>
@@ -37542,25 +37542,25 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916796</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>388.993646161601</v>
+        <v>281.8524450409515</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027014</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
@@ -37864,7 +37864,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,28 +37940,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>167.0540751263758</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>147.5459694702538</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
@@ -38189,7 +38189,7 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
@@ -38198,7 +38198,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
